--- a/leiji/8.1-8.2_leiji/leiji_baobiao的副本.xlsx
+++ b/leiji/8.1-8.2_leiji/leiji_baobiao的副本.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,9 +132,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,13 +163,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -210,33 +236,63 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,688 +600,690 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>21000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>0.02</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>11264</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="5">
         <v>1092</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>9.6946022727272721E-2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>4.8473011363636358</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>43.12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>77600</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>1795393</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="5">
         <v>286202</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.15940910987176621</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>3.688170103092784</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>1.8114671576337069</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>43800</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>434569</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="5">
         <v>7607</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>1.750470005913906E-2</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.17367579908675801</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>0.29769898059760302</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <v>22.328507169109599</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>142400</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="12">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="13">
         <v>2241226</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="13">
         <v>294901</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="12">
         <v>0.1315802154713536</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>2.070933988764045</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="12">
         <v>2.6581861711384569</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>27900</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>92253</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <v>3374</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>3.6573336368464979E-2</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.12093189964157711</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>1.044952467670428</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>47.255913978494632</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>16100</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>0.03</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>102181</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>1988</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>1.9455671798083791E-2</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
         <v>0.1234782608695652</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <v>0.64852239326945971</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <v>33.349591382952298</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>16200</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>139689</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>1919</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>1.3737660087766401E-2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.11845679012345681</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.4906307174202284</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>26.732636104216539</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>12800</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>584710</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>6637</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>1.135092610011801E-2</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.51851562500000004</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.420404670374741</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>47.927124314989641</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>73000</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="12">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="13">
         <v>918833</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="13">
         <v>13918</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="12">
         <v>1.514747511245243E-2</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="12">
         <v>0.19065753424657531</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="12">
         <v>0.50323837582898434</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="14">
         <v>31.568987087953889</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>21600</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>433545</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>14202</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>3.2757845206379962E-2</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>0.65749999999999997</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>1.364910216932498</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>79.449999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>3200</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>0.01</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>17486</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>253</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>1.446871783140798E-2</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>7.9062499999999994E-2</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>1.446871783140798</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <v>44.743749999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>33500</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>6.6600000000000006E-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>223972</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <v>3670</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>1.6385976818530889E-2</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>0.10955223880597011</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>0.2460356879659292</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>16.41456184699538</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="11">
         <v>58300</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="12">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="13">
         <v>675003</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="13">
         <v>18125</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="12">
         <v>2.6851732510818471E-2</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="12">
         <v>0.31089193825042882</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="12">
         <v>0.78284934433873099</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="14">
         <v>49.967490068574968</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>16300</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="5">
         <v>108486</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>4491</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>4.1397046623527459E-2</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>0.27552147239263802</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="3">
         <v>0.47582812210951098</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <v>35.564413227938722</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="11">
         <v>16300</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="12">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="13">
         <v>108486</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="13">
         <v>4491</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="12">
         <v>4.1397046623527459E-2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="12">
         <v>0.27552147239263802</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="12">
         <v>0.47582812210951098</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="14">
         <v>35.564413227938722</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>2100</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>6371</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>30</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>4.7088369172814306E-3</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>1.428571428571429E-2</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <v>0.25047004879156548</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <v>10.87594480880548</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="11">
         <v>2100</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="12">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="13">
         <v>6371</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="13">
         <v>30</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="12">
         <v>4.7088369172814306E-3</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="12">
         <v>1.428571428571429E-2</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="12">
         <v>0.25047004879156548</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="14">
         <v>10.87594480880548</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>266060</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>1967</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>7.3930692325039462E-3</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>0</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="5">
         <v>4041414</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <v>326587</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>8.0810082807650979E-2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="13">
         <v>4307474</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="13">
         <v>328554</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="12">
         <v>7.6275329810464323E-2</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="12">
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="12">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="16">
         <v>292100</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="17">
         <v>4.0009403097237807E-2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="18">
         <v>8257393</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="18">
         <v>660019</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="17">
         <v>7.9930675456527253E-2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="17">
         <v>2.2595652173913039</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="17">
         <v>1.997797249368251</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="19">
         <v>100</v>
       </c>
     </row>
